--- a/src/main/resources/download/student.xlsx
+++ b/src/main/resources/download/student.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>学校全称</t>
   </si>
   <si>
     <t>年级</t>
+  </si>
+  <si>
+    <t>班级</t>
   </si>
   <si>
     <t>姓名</t>
@@ -56,8 +59,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -75,11 +78,49 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -87,18 +128,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,44 +174,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +197,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -178,6 +204,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -186,31 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,15 +234,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,7 +256,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,181 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,30 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -513,17 +487,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,21 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -569,169 +539,197 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -740,23 +738,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -766,14 +760,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1098,61 +1088,69 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="12"/>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
